--- a/Base_de_donnees/FlipQuiz_matice.xlsx
+++ b/Base_de_donnees/FlipQuiz_matice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbreton\Documents\Git\FlipQuiz\Base_de_donnees\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frédéric\Documents\Git\FlipQuiz\Base_de_donnees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EC3781-5593-4809-83F7-49D4C08FBE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01643576-4B78-4E25-85E5-3B16C5D72B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32070" yWindow="2805" windowWidth="23745" windowHeight="12675" xr2:uid="{3C45317C-A43A-4BF5-94D1-8D3F023CCEA7}"/>
+    <workbookView xWindow="-22605" yWindow="2880" windowWidth="17280" windowHeight="8880" xr2:uid="{3C45317C-A43A-4BF5-94D1-8D3F023CCEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Equipe_id</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Equipe_nom</t>
   </si>
   <si>
-    <t>Equipe_points</t>
-  </si>
-  <si>
-    <t>Quiz_theme</t>
-  </si>
-  <si>
     <t>Quiz_description</t>
   </si>
   <si>
@@ -78,6 +72,9 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>Equipe_total_points</t>
   </si>
 </sst>
 </file>
@@ -148,8 +145,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BED7BB2-27B2-49B8-82A7-BEEFC619D127}" name="Tableau1" displayName="Tableau1" ref="B3:F16" totalsRowShown="0">
-  <autoFilter ref="B3:F16" xr:uid="{0BED7BB2-27B2-49B8-82A7-BEEFC619D127}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BED7BB2-27B2-49B8-82A7-BEEFC619D127}" name="Tableau1" displayName="Tableau1" ref="B3:F15" totalsRowShown="0">
+  <autoFilter ref="B3:F15" xr:uid="{0BED7BB2-27B2-49B8-82A7-BEEFC619D127}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{A91FFB7F-6893-40FE-8C72-2B64417BC88B}" name="/" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{5368E66A-5F95-4716-B4DC-971DA5694D80}" name="Equipe_id"/>
@@ -478,24 +475,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9E479F-322D-4F70-8D67-711DA428C851}">
-  <dimension ref="B3:F16"/>
+  <dimension ref="B3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -510,12 +507,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -523,88 +520,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16">
         <v>1</v>
       </c>
     </row>

--- a/Base_de_donnees/FlipQuiz_matice.xlsx
+++ b/Base_de_donnees/FlipQuiz_matice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frédéric\Documents\Git\FlipQuiz\Base_de_donnees\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbreton\Documents\Git\FlipQuiz\Base_de_donnees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01643576-4B78-4E25-85E5-3B16C5D72B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D02A58F-26C0-42B9-91CE-9563BF6463BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22605" yWindow="2880" windowWidth="17280" windowHeight="8880" xr2:uid="{3C45317C-A43A-4BF5-94D1-8D3F023CCEA7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C45317C-A43A-4BF5-94D1-8D3F023CCEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
-  <si>
-    <t>Equipe_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Quiz_id</t>
   </si>
@@ -50,9 +47,6 @@
     <t>Question_id</t>
   </si>
   <si>
-    <t>Equipe_nom</t>
-  </si>
-  <si>
     <t>Quiz_description</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
   </si>
   <si>
     <t>/</t>
-  </si>
-  <si>
-    <t>Equipe_total_points</t>
   </si>
 </sst>
 </file>
@@ -145,11 +136,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BED7BB2-27B2-49B8-82A7-BEEFC619D127}" name="Tableau1" displayName="Tableau1" ref="B3:F15" totalsRowShown="0">
-  <autoFilter ref="B3:F15" xr:uid="{0BED7BB2-27B2-49B8-82A7-BEEFC619D127}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BED7BB2-27B2-49B8-82A7-BEEFC619D127}" name="Tableau1" displayName="Tableau1" ref="B3:E12" totalsRowShown="0">
+  <autoFilter ref="B3:E12" xr:uid="{0BED7BB2-27B2-49B8-82A7-BEEFC619D127}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A91FFB7F-6893-40FE-8C72-2B64417BC88B}" name="/" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{5368E66A-5F95-4716-B4DC-971DA5694D80}" name="Equipe_id"/>
     <tableColumn id="3" xr3:uid="{C83DEC18-9A09-4288-9DDA-AE6637197EB9}" name="Quiz_id"/>
     <tableColumn id="4" xr3:uid="{2909C554-84B0-42DD-B389-EEDF73A9CD33}" name="Categorie_id"/>
     <tableColumn id="5" xr3:uid="{B4D38AB2-D546-4FB5-BC48-99BA1C5BF28B}" name="Question_id"/>
@@ -475,24 +465,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9E479F-322D-4F70-8D67-711DA428C851}">
-  <dimension ref="B3:F15"/>
+  <dimension ref="B3:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -503,56 +492,53 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -560,40 +546,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15">
+      <c r="E12">
         <v>1</v>
       </c>
     </row>
